--- a/data/course_requirements/MIE_Curricularanalyse_Information_Engineering_Template.xlsx
+++ b/data/course_requirements/MIE_Curricularanalyse_Information_Engineering_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenAI\git\AdmitAssist\data\course_requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meet/Documents/python/projects/AdmitAssist/data/course_requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD89D79B-F4D3-43DD-A586-233FA3A33688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62844F8-6ED9-AB42-ABF7-A62240725CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1080" windowWidth="29040" windowHeight="15720" xr2:uid="{88DB9B44-DCD0-49C3-AD09-56CEFF7E8A11}"/>
+    <workbookView xWindow="-9240" yWindow="-28800" windowWidth="25380" windowHeight="28800" xr2:uid="{88DB9B44-DCD0-49C3-AD09-56CEFF7E8A11}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>Credits</t>
   </si>
@@ -733,19 +733,40 @@
     </r>
   </si>
   <si>
-    <t>b) Fachliche Grundlagen im Bereich Theoretische Informatik / Basics in the field of theoretical informatics:</t>
-  </si>
-  <si>
-    <t>a) Fachliche Grundlagen im Bereich Informatik / Basics in the field of computer science:</t>
-  </si>
-  <si>
-    <t>b) Fachliche Grundlagen im Bereich Cyberphysical Systems / Basics in the field of Cyberphysical Systems:</t>
-  </si>
-  <si>
-    <t>b) Fachliche Grundlagen im Bereich Information Systems / Basics in the field of information systems:</t>
-  </si>
-  <si>
-    <t>b) Mathematische und theoretische Grndlagen / Mathematical and theoretical basics:</t>
+    <t xml:space="preserve"> P 1: Introduction to Programming (INF-EiP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P 5: Programming and Modeling (INF-ProMo) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P 6: Computer Architecture (INF-RA) </t>
+  </si>
+  <si>
+    <t>P 10: Software Engineering (INF-SWT)</t>
+  </si>
+  <si>
+    <t>P 9: Operating Systems (INF-BS)</t>
+  </si>
+  <si>
+    <t>P 11: Algorithms and Data Structures (INF-AlDs)</t>
+  </si>
+  <si>
+    <t>P 17: Database Systems I (INF-DBSI)</t>
+  </si>
+  <si>
+    <t>P 13: Computer Networks and Distributed Systems (INF-RVS)</t>
+  </si>
+  <si>
+    <t>P 12: Formal Languages and Complexity Theory (INF-FSK)</t>
+  </si>
+  <si>
+    <t>P 7: Logic and Discrete Structures (INF-LDS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P 2: Analysis for Computer Scientists and Statisticians (MA-AnIS) </t>
+  </si>
+  <si>
+    <t>P8: Introduction to Probability Calculus and Inductive Statistics (STAT-EWIDS)</t>
   </si>
 </sst>
 </file>
@@ -764,6 +785,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1058,7 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1230,29 +1252,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1265,48 +1291,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1337,6 +1321,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -1351,6 +1336,39 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1448,6 +1466,14 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1468,9 +1494,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1508,9 +1534,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1543,9 +1569,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1578,9 +1621,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1757,26 +1817,26 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M322"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1785,20 +1845,20 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="120"/>
       <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+    <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="119" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="52"/>
@@ -1809,7 +1869,7 @@
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1819,19 +1879,19 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="122" t="s">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="52"/>
     </row>
-    <row r="6" spans="1:8" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1840,31 +1900,31 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="123" t="s">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
       <c r="H7" s="52"/>
     </row>
-    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="125" t="s">
+      <c r="F8" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-    </row>
-    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+    </row>
+    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="55" t="s">
         <v>33</v>
       </c>
@@ -1876,7 +1936,7 @@
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:8" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="9.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1886,168 +1946,167 @@
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
     </row>
-    <row r="11" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92" t="s">
+    <row r="11" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-    </row>
-    <row r="12" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="92" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+    </row>
+    <row r="12" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="91"/>
-    </row>
-    <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="92" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+    </row>
+    <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91"/>
-    </row>
-    <row r="14" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="92" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+    </row>
+    <row r="14" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="91"/>
-    </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="80"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
+    </row>
+    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97" t="s">
+    <row r="16" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-    </row>
-    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="92" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+    </row>
+    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
-    </row>
-    <row r="18" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="80"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+    </row>
+    <row r="18" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="24"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="92" t="s">
+    <row r="19" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="127" t="s">
+      <c r="B19" s="80"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="100" t="s">
+      <c r="F19" s="127"/>
+      <c r="G19" s="88" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="52"/>
     </row>
-    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="92" t="s">
+    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="101"/>
-    </row>
-    <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="89"/>
+    </row>
+    <row r="21" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="75" t="str">
+      <c r="B21" s="80"/>
+      <c r="C21" s="90" t="str">
         <f>IF(C20="","",C20*2/3)</f>
         <v/>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
-    </row>
-    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="92" t="s">
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="92"/>
+    </row>
+    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="75" t="str">
-        <f>IF(OR(C20=0,C20=""),"",ROUNDUP(60*C19/C20,2))</f>
-        <v/>
-      </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
-    </row>
-    <row r="23" spans="1:8" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="80" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="90">
+        <v>1</v>
+      </c>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+    </row>
+    <row r="23" spans="1:8" ht="267.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-    </row>
-    <row r="25" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="81" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+    </row>
+    <row r="25" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
-    </row>
-    <row r="26" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="85"/>
+    </row>
+    <row r="26" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2056,19 +2115,19 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="86" t="s">
+    <row r="27" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2077,19 +2136,19 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="66" t="s">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
-    </row>
-    <row r="30" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
+    </row>
+    <row r="30" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2098,15 +2157,15 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
       <c r="E31" s="26" t="s">
         <v>0</v>
       </c>
@@ -2117,1347 +2176,1059 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="129" t="s">
+    <row r="32" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="48">
+        <v>9</v>
+      </c>
+      <c r="F32" s="45">
+        <f>E32*$C$22</f>
+        <v>9</v>
+      </c>
+      <c r="G32" s="70">
+        <f>SUM(F32:F41)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="128"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="45">
+        <f t="shared" ref="F33:F71" si="0">E33*$C$22</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="125"/>
+    </row>
+    <row r="34" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="128"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="45">
+        <f>E34*$C$22</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="125"/>
+    </row>
+    <row r="35" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="128"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="45">
+        <f>E34*$C$22</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="125"/>
+    </row>
+    <row r="36" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="128"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="125"/>
+    </row>
+    <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="128"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="125"/>
+    </row>
+    <row r="38" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="128"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="125"/>
+    </row>
+    <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="128"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="125"/>
+    </row>
+    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="128"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="125"/>
+    </row>
+    <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="128"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="45">
+        <f>E41*$C$22</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="125"/>
+    </row>
+    <row r="42" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="48">
-        <v>1</v>
-      </c>
-      <c r="F32" s="45" t="e">
-        <f>E32*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" s="69" t="e">
-        <f>SUM(F32:F41)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="129"/>
-      <c r="B33" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="48">
-        <v>1</v>
-      </c>
-      <c r="F33" s="45" t="e">
-        <f t="shared" ref="F33:F71" si="0">E33*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" s="126"/>
-    </row>
-    <row r="34" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="129"/>
-      <c r="B34" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="48">
-        <v>1</v>
-      </c>
-      <c r="F34" s="45" t="e">
-        <f>#REF!*$C$22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G34" s="126"/>
-    </row>
-    <row r="35" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="129"/>
-      <c r="B35" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="48">
-        <v>1</v>
-      </c>
-      <c r="F35" s="45" t="e">
-        <f>E34*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" s="126"/>
-    </row>
-    <row r="36" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="129"/>
-      <c r="B36" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="48">
-        <v>1</v>
-      </c>
-      <c r="F36" s="45" t="e">
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="48">
+        <v>6</v>
+      </c>
+      <c r="F42" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" s="126"/>
-    </row>
-    <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="129"/>
-      <c r="B37" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="48">
-        <v>1</v>
-      </c>
-      <c r="F37" s="45" t="e">
+        <v>6</v>
+      </c>
+      <c r="G42" s="70">
+        <f>SUM(F42:F51)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="109"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" s="126"/>
-    </row>
-    <row r="38" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="129"/>
-      <c r="B38" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="48">
-        <v>1</v>
-      </c>
-      <c r="F38" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G43" s="125"/>
+    </row>
+    <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="109"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" s="126"/>
-    </row>
-    <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="129"/>
-      <c r="B39" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="48">
-        <v>1</v>
-      </c>
-      <c r="F39" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G44" s="125"/>
+    </row>
+    <row r="45" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="109"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G39" s="126"/>
-    </row>
-    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="129"/>
-      <c r="B40" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="48">
-        <v>1</v>
-      </c>
-      <c r="F40" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G45" s="125"/>
+    </row>
+    <row r="46" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="109"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" s="126"/>
-    </row>
-    <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="129"/>
-      <c r="B41" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="48">
-        <v>1</v>
-      </c>
-      <c r="F41" s="45" t="e">
-        <f>E41*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" s="126"/>
-    </row>
-    <row r="42" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="48">
-        <v>1</v>
-      </c>
-      <c r="F42" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G46" s="125"/>
+    </row>
+    <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="109"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" s="69" t="e">
-        <f>SUM(F42:F51)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="110"/>
-      <c r="B43" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="48">
-        <v>1</v>
-      </c>
-      <c r="F43" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G47" s="125"/>
+    </row>
+    <row r="48" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="109"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G43" s="126"/>
-    </row>
-    <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="110"/>
-      <c r="B44" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="48">
-        <v>1</v>
-      </c>
-      <c r="F44" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G48" s="125"/>
+    </row>
+    <row r="49" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="109"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G44" s="126"/>
-    </row>
-    <row r="45" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="110"/>
-      <c r="B45" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="48">
-        <v>1</v>
-      </c>
-      <c r="F45" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G49" s="125"/>
+    </row>
+    <row r="50" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="109"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G45" s="126"/>
-    </row>
-    <row r="46" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="110"/>
-      <c r="B46" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="48">
-        <v>1</v>
-      </c>
-      <c r="F46" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G50" s="125"/>
+    </row>
+    <row r="51" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="110"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G46" s="126"/>
-    </row>
-    <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="110"/>
-      <c r="B47" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="48">
-        <v>1</v>
-      </c>
-      <c r="F47" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G51" s="125"/>
+    </row>
+    <row r="52" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="48">
+        <v>6</v>
+      </c>
+      <c r="F52" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G47" s="126"/>
-    </row>
-    <row r="48" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="110"/>
-      <c r="B48" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="48">
-        <v>1</v>
-      </c>
-      <c r="F48" s="45" t="e">
+        <v>6</v>
+      </c>
+      <c r="G52" s="70">
+        <f>SUM(F52:F61)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="109"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G48" s="126"/>
-    </row>
-    <row r="49" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="110"/>
-      <c r="B49" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="48">
-        <v>1</v>
-      </c>
-      <c r="F49" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G53" s="125"/>
+    </row>
+    <row r="54" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="109"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G49" s="126"/>
-    </row>
-    <row r="50" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="110"/>
-      <c r="B50" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="48">
-        <v>1</v>
-      </c>
-      <c r="F50" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G54" s="125"/>
+    </row>
+    <row r="55" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="109"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="126"/>
-    </row>
-    <row r="51" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="111"/>
-      <c r="B51" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="48">
-        <v>1</v>
-      </c>
-      <c r="F51" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G55" s="125"/>
+    </row>
+    <row r="56" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="109"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" s="126"/>
-    </row>
-    <row r="52" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="48">
-        <v>1</v>
-      </c>
-      <c r="F52" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G56" s="125"/>
+    </row>
+    <row r="57" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="109"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" s="69" t="e">
-        <f>SUM(F52:F61)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="110"/>
-      <c r="B53" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="48">
-        <v>1</v>
-      </c>
-      <c r="F53" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G57" s="125"/>
+    </row>
+    <row r="58" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="109"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="126"/>
-    </row>
-    <row r="54" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="110"/>
-      <c r="B54" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="48">
-        <v>1</v>
-      </c>
-      <c r="F54" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G58" s="125"/>
+    </row>
+    <row r="59" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="109"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" s="126"/>
-    </row>
-    <row r="55" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="110"/>
-      <c r="B55" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="48">
-        <v>1</v>
-      </c>
-      <c r="F55" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G59" s="125"/>
+    </row>
+    <row r="60" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="109"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G55" s="126"/>
-    </row>
-    <row r="56" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="110"/>
-      <c r="B56" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="48">
-        <v>1</v>
-      </c>
-      <c r="F56" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G60" s="125"/>
+    </row>
+    <row r="61" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="110"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G56" s="126"/>
-    </row>
-    <row r="57" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="110"/>
-      <c r="B57" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="48">
-        <v>1</v>
-      </c>
-      <c r="F57" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G61" s="125"/>
+    </row>
+    <row r="62" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="48">
+        <v>6</v>
+      </c>
+      <c r="F62" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G57" s="126"/>
-    </row>
-    <row r="58" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="110"/>
-      <c r="B58" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="48">
-        <v>1</v>
-      </c>
-      <c r="F58" s="45" t="e">
+        <v>6</v>
+      </c>
+      <c r="G62" s="70">
+        <f>SUM(F62:F71)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="109"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G58" s="126"/>
-    </row>
-    <row r="59" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="110"/>
-      <c r="B59" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="48">
-        <v>1</v>
-      </c>
-      <c r="F59" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G63" s="71"/>
+    </row>
+    <row r="64" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="109"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" s="126"/>
-    </row>
-    <row r="60" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="110"/>
-      <c r="B60" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="48">
-        <v>1</v>
-      </c>
-      <c r="F60" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G64" s="71"/>
+    </row>
+    <row r="65" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="109"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="126"/>
-    </row>
-    <row r="61" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="111"/>
-      <c r="B61" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="48">
-        <v>1</v>
-      </c>
-      <c r="F61" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G65" s="71"/>
+    </row>
+    <row r="66" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="109"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="126"/>
-    </row>
-    <row r="62" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="48">
-        <v>1</v>
-      </c>
-      <c r="F62" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G66" s="71"/>
+    </row>
+    <row r="67" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="109"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G62" s="69" t="e">
-        <f>SUM(F62:F71)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="110"/>
-      <c r="B63" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="88"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="48">
-        <v>1</v>
-      </c>
-      <c r="F63" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G67" s="71"/>
+    </row>
+    <row r="68" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="109"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G63" s="70"/>
-    </row>
-    <row r="64" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="110"/>
-      <c r="B64" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="48">
-        <v>1</v>
-      </c>
-      <c r="F64" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G68" s="71"/>
+    </row>
+    <row r="69" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="109"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G64" s="70"/>
-    </row>
-    <row r="65" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="110"/>
-      <c r="B65" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="48">
-        <v>1</v>
-      </c>
-      <c r="F65" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G69" s="71"/>
+    </row>
+    <row r="70" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="109"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G65" s="70"/>
-    </row>
-    <row r="66" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="110"/>
-      <c r="B66" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="48">
-        <v>1</v>
-      </c>
-      <c r="F66" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G70" s="71"/>
+    </row>
+    <row r="71" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="110"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G66" s="70"/>
-    </row>
-    <row r="67" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="110"/>
-      <c r="B67" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="48">
-        <v>1</v>
-      </c>
-      <c r="F67" s="45" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G67" s="70"/>
-    </row>
-    <row r="68" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="110"/>
-      <c r="B68" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="48">
-        <v>1</v>
-      </c>
-      <c r="F68" s="45" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G68" s="70"/>
-    </row>
-    <row r="69" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="110"/>
-      <c r="B69" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="48">
-        <v>1</v>
-      </c>
-      <c r="F69" s="45" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G69" s="70"/>
-    </row>
-    <row r="70" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="110"/>
-      <c r="B70" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="48">
-        <v>1</v>
-      </c>
-      <c r="F70" s="45" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G70" s="70"/>
-    </row>
-    <row r="71" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="111"/>
-      <c r="B71" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="88"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="48">
-        <v>1</v>
-      </c>
-      <c r="F71" s="45" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G71" s="71"/>
-    </row>
-    <row r="72" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="72"/>
+    </row>
+    <row r="72" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
+      <c r="B72" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
       <c r="E72" s="48">
-        <v>1</v>
-      </c>
-      <c r="F72" s="45" t="e">
+        <v>6</v>
+      </c>
+      <c r="F72" s="45">
         <f t="shared" ref="F72:F81" si="1">E72*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G72" s="69" t="e">
+        <v>6</v>
+      </c>
+      <c r="G72" s="70">
         <f>SUM(F72:F81)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="131"/>
-      <c r="B73" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="88"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="48">
-        <v>1</v>
-      </c>
-      <c r="F73" s="45" t="e">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="130"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="45">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G73" s="70"/>
-    </row>
-    <row r="74" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="131"/>
-      <c r="B74" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="48">
-        <v>1</v>
-      </c>
-      <c r="F74" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G73" s="71"/>
+    </row>
+    <row r="74" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="130"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="45">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G74" s="70"/>
-    </row>
-    <row r="75" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="131"/>
-      <c r="B75" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="88"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="48">
-        <v>1</v>
-      </c>
-      <c r="F75" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G74" s="71"/>
+    </row>
+    <row r="75" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="130"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="45">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G75" s="70"/>
-    </row>
-    <row r="76" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="131"/>
-      <c r="B76" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="88"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="48">
-        <v>1</v>
-      </c>
-      <c r="F76" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G75" s="71"/>
+    </row>
+    <row r="76" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="130"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="45">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G76" s="70"/>
-    </row>
-    <row r="77" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="131"/>
-      <c r="B77" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="48">
-        <v>1</v>
-      </c>
-      <c r="F77" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G76" s="71"/>
+    </row>
+    <row r="77" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="130"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="45">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G77" s="70"/>
-    </row>
-    <row r="78" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="131"/>
-      <c r="B78" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="48">
-        <v>1</v>
-      </c>
-      <c r="F78" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G77" s="71"/>
+    </row>
+    <row r="78" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="130"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="45">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G78" s="70"/>
-    </row>
-    <row r="79" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="131"/>
-      <c r="B79" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="88"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="48">
-        <v>1</v>
-      </c>
-      <c r="F79" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G78" s="71"/>
+    </row>
+    <row r="79" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="130"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="45">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G79" s="70"/>
-    </row>
-    <row r="80" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="131"/>
-      <c r="B80" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="48">
-        <v>1</v>
-      </c>
-      <c r="F80" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G79" s="71"/>
+    </row>
+    <row r="80" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="130"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="45">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G80" s="70"/>
-    </row>
-    <row r="81" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="132"/>
-      <c r="B81" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" s="88"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="48">
-        <v>1</v>
-      </c>
-      <c r="F81" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G80" s="71"/>
+    </row>
+    <row r="81" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="131"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="45">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G81" s="71"/>
-    </row>
-    <row r="82" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="72"/>
+    </row>
+    <row r="82" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="88"/>
-      <c r="D82" s="88"/>
+      <c r="B82" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="134"/>
+      <c r="D82" s="135"/>
       <c r="E82" s="48">
-        <v>1</v>
-      </c>
-      <c r="F82" s="45" t="e">
+        <v>6</v>
+      </c>
+      <c r="F82" s="45">
         <f t="shared" ref="F82:F91" si="2">E82*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G82" s="69" t="e">
+        <v>6</v>
+      </c>
+      <c r="G82" s="70">
         <f>SUM(F82:F91)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="110"/>
-      <c r="B83" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="48">
-        <v>1</v>
-      </c>
-      <c r="F83" s="45" t="e">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="109"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="135"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="45">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G83" s="70"/>
-    </row>
-    <row r="84" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="110"/>
-      <c r="B84" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="48">
-        <v>1</v>
-      </c>
-      <c r="F84" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G83" s="71"/>
+    </row>
+    <row r="84" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="109"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="135"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="45">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G84" s="70"/>
-    </row>
-    <row r="85" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="110"/>
-      <c r="B85" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="48">
-        <v>1</v>
-      </c>
-      <c r="F85" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G84" s="71"/>
+    </row>
+    <row r="85" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="109"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="135"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="45">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G85" s="70"/>
-    </row>
-    <row r="86" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="110"/>
-      <c r="B86" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" s="88"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="48">
-        <v>1</v>
-      </c>
-      <c r="F86" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G85" s="71"/>
+    </row>
+    <row r="86" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="109"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="135"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="45">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G86" s="70"/>
-    </row>
-    <row r="87" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="110"/>
-      <c r="B87" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" s="88"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="48">
-        <v>1</v>
-      </c>
-      <c r="F87" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G86" s="71"/>
+    </row>
+    <row r="87" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="109"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="135"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="45">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G87" s="70"/>
-    </row>
-    <row r="88" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="110"/>
-      <c r="B88" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="48">
-        <v>1</v>
-      </c>
-      <c r="F88" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G87" s="71"/>
+    </row>
+    <row r="88" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="109"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="135"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="45">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G88" s="70"/>
-    </row>
-    <row r="89" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="110"/>
-      <c r="B89" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" s="88"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="48">
-        <v>1</v>
-      </c>
-      <c r="F89" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G88" s="71"/>
+    </row>
+    <row r="89" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="109"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="135"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="45">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G89" s="70"/>
-    </row>
-    <row r="90" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="110"/>
-      <c r="B90" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="48">
-        <v>1</v>
-      </c>
-      <c r="F90" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G89" s="71"/>
+    </row>
+    <row r="90" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="109"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="135"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="45">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G90" s="70"/>
-    </row>
-    <row r="91" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="111"/>
-      <c r="B91" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="48">
-        <v>1</v>
-      </c>
-      <c r="F91" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G90" s="71"/>
+    </row>
+    <row r="91" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="110"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="135"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="45">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G91" s="71"/>
-    </row>
-    <row r="92" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="72"/>
+    </row>
+    <row r="92" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="B92" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" s="88"/>
-      <c r="D92" s="88"/>
+      <c r="B92" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="134"/>
+      <c r="D92" s="135"/>
       <c r="E92" s="48">
-        <v>1</v>
-      </c>
-      <c r="F92" s="45" t="e">
+        <v>6</v>
+      </c>
+      <c r="F92" s="45">
         <f t="shared" ref="F92:F101" si="3">E92*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G92" s="69" t="e">
+        <v>6</v>
+      </c>
+      <c r="G92" s="70">
         <f>SUM(F92:F101)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="110"/>
-      <c r="B93" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" s="88"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="48">
-        <v>1</v>
-      </c>
-      <c r="F93" s="45" t="e">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="109"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="135"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="45">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G93" s="70"/>
-    </row>
-    <row r="94" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="110"/>
-      <c r="B94" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" s="88"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="48">
-        <v>1</v>
-      </c>
-      <c r="F94" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G93" s="71"/>
+    </row>
+    <row r="94" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="109"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="134"/>
+      <c r="D94" s="135"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="45">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G94" s="70"/>
-    </row>
-    <row r="95" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="110"/>
-      <c r="B95" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" s="88"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="48">
-        <v>1</v>
-      </c>
-      <c r="F95" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G94" s="71"/>
+    </row>
+    <row r="95" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="109"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="135"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="45">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G95" s="70"/>
-    </row>
-    <row r="96" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="110"/>
-      <c r="B96" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C96" s="88"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="48">
-        <v>1</v>
-      </c>
-      <c r="F96" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G95" s="71"/>
+    </row>
+    <row r="96" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="109"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="134"/>
+      <c r="D96" s="135"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="45">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G96" s="70"/>
-    </row>
-    <row r="97" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="110"/>
-      <c r="B97" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" s="88"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="48">
-        <v>1</v>
-      </c>
-      <c r="F97" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G96" s="71"/>
+    </row>
+    <row r="97" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="109"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="134"/>
+      <c r="D97" s="135"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="45">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G97" s="70"/>
-    </row>
-    <row r="98" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="110"/>
-      <c r="B98" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" s="88"/>
-      <c r="D98" s="88"/>
-      <c r="E98" s="48">
-        <v>1</v>
-      </c>
-      <c r="F98" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G97" s="71"/>
+    </row>
+    <row r="98" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="109"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="134"/>
+      <c r="D98" s="135"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="45">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G98" s="70"/>
-    </row>
-    <row r="99" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="110"/>
-      <c r="B99" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C99" s="88"/>
-      <c r="D99" s="88"/>
-      <c r="E99" s="48">
-        <v>1</v>
-      </c>
-      <c r="F99" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G98" s="71"/>
+    </row>
+    <row r="99" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="109"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="134"/>
+      <c r="D99" s="135"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="45">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G99" s="70"/>
-    </row>
-    <row r="100" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="110"/>
-      <c r="B100" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" s="88"/>
-      <c r="D100" s="88"/>
-      <c r="E100" s="48">
-        <v>1</v>
-      </c>
-      <c r="F100" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G99" s="71"/>
+    </row>
+    <row r="100" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="109"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="135"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="45">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G100" s="70"/>
-    </row>
-    <row r="101" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="111"/>
-      <c r="B101" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="48">
-        <v>1</v>
-      </c>
-      <c r="F101" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G100" s="71"/>
+    </row>
+    <row r="101" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="110"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="134"/>
+      <c r="D101" s="135"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="45">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G101" s="71"/>
-    </row>
-    <row r="102" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" s="72"/>
+    </row>
+    <row r="102" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B102" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102" s="88"/>
-      <c r="D102" s="88"/>
+      <c r="B102" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="134"/>
+      <c r="D102" s="135"/>
       <c r="E102" s="48">
-        <v>1</v>
-      </c>
-      <c r="F102" s="45" t="e">
+        <v>6</v>
+      </c>
+      <c r="F102" s="45">
         <f t="shared" ref="F102:F111" si="4">E102*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G102" s="69" t="e">
+        <v>6</v>
+      </c>
+      <c r="G102" s="70">
         <f>SUM(F102:F111)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="110"/>
-      <c r="B103" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103" s="88"/>
-      <c r="D103" s="88"/>
-      <c r="E103" s="48">
-        <v>1</v>
-      </c>
-      <c r="F103" s="45" t="e">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="109"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="134"/>
+      <c r="D103" s="135"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="45">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G103" s="70"/>
-    </row>
-    <row r="104" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="110"/>
-      <c r="B104" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="48">
-        <v>1</v>
-      </c>
-      <c r="F104" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G103" s="71"/>
+    </row>
+    <row r="104" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="109"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="134"/>
+      <c r="D104" s="135"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="45">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G104" s="70"/>
-    </row>
-    <row r="105" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="110"/>
-      <c r="B105" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" s="88"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="48">
-        <v>1</v>
-      </c>
-      <c r="F105" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G104" s="71"/>
+    </row>
+    <row r="105" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="109"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="134"/>
+      <c r="D105" s="135"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="45">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G105" s="70"/>
-    </row>
-    <row r="106" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="110"/>
-      <c r="B106" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="48">
-        <v>1</v>
-      </c>
-      <c r="F106" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G105" s="71"/>
+    </row>
+    <row r="106" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="109"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="134"/>
+      <c r="D106" s="135"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="45">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G106" s="70"/>
-    </row>
-    <row r="107" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="110"/>
-      <c r="B107" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C107" s="88"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="48">
-        <v>1</v>
-      </c>
-      <c r="F107" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G106" s="71"/>
+    </row>
+    <row r="107" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="109"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="134"/>
+      <c r="D107" s="135"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="45">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G107" s="70"/>
-    </row>
-    <row r="108" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="110"/>
-      <c r="B108" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C108" s="88"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="48">
-        <v>1</v>
-      </c>
-      <c r="F108" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G107" s="71"/>
+    </row>
+    <row r="108" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="109"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="134"/>
+      <c r="D108" s="135"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="45">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G108" s="70"/>
-    </row>
-    <row r="109" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="110"/>
-      <c r="B109" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C109" s="88"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="48">
-        <v>1</v>
-      </c>
-      <c r="F109" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G108" s="71"/>
+    </row>
+    <row r="109" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="109"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="134"/>
+      <c r="D109" s="135"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="45">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G109" s="70"/>
-    </row>
-    <row r="110" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="110"/>
-      <c r="B110" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" s="88"/>
-      <c r="D110" s="88"/>
-      <c r="E110" s="48">
-        <v>1</v>
-      </c>
-      <c r="F110" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G109" s="71"/>
+    </row>
+    <row r="110" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="109"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="134"/>
+      <c r="D110" s="135"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="45">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G110" s="70"/>
-    </row>
-    <row r="111" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="111"/>
-      <c r="B111" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="48">
-        <v>1</v>
-      </c>
-      <c r="F111" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G110" s="71"/>
+    </row>
+    <row r="111" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="110"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="134"/>
+      <c r="D111" s="135"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="45">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G111" s="71"/>
-    </row>
-    <row r="112" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G111" s="72"/>
+    </row>
+    <row r="112" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="27"/>
-      <c r="B112" s="102" t="s">
+      <c r="B112" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="103"/>
-      <c r="D112" s="104"/>
+      <c r="C112" s="102"/>
+      <c r="D112" s="103"/>
       <c r="E112" s="43">
         <f>SUM(E32:E111)</f>
-        <v>80</v>
-      </c>
-      <c r="F112" s="43" t="e">
+        <v>51</v>
+      </c>
+      <c r="F112" s="43">
         <f>SUM(F32:F111)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G112" s="47" t="e">
+        <v>51</v>
+      </c>
+      <c r="G112" s="47">
         <f>SUM(G32:G111)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="150.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="150.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="37"/>
       <c r="B113" s="38"/>
       <c r="C113" s="38"/>
@@ -3465,19 +3236,19 @@
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="66" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="68"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="66"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="67"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="37"/>
       <c r="B115" s="38"/>
       <c r="C115" s="38"/>
@@ -3485,15 +3256,15 @@
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
     </row>
-    <row r="116" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A116" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="78" t="s">
+      <c r="B116" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C116" s="79"/>
-      <c r="D116" s="79"/>
+      <c r="C116" s="94"/>
+      <c r="D116" s="94"/>
       <c r="E116" s="26" t="s">
         <v>0</v>
       </c>
@@ -3504,192 +3275,156 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="129" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="B117" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C117" s="88"/>
-      <c r="D117" s="88"/>
+      <c r="B117" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="69"/>
+      <c r="D117" s="69"/>
       <c r="E117" s="48">
-        <v>2</v>
-      </c>
-      <c r="F117" s="45" t="e">
+        <v>6</v>
+      </c>
+      <c r="F117" s="45">
         <f>E117*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G117" s="72" t="e">
+        <v>6</v>
+      </c>
+      <c r="G117" s="73">
         <f>SUM(F117:F126)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="129"/>
-      <c r="B118" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C118" s="88"/>
-      <c r="D118" s="88"/>
-      <c r="E118" s="48">
-        <v>2</v>
-      </c>
-      <c r="F118" s="45" t="e">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" s="128"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="45">
         <f t="shared" ref="F118:F126" si="5">E118*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G118" s="133"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="129"/>
-      <c r="B119" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C119" s="88"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="48">
-        <v>2</v>
-      </c>
-      <c r="F119" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G118" s="132"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" s="128"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="45">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G119" s="133"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="129"/>
-      <c r="B120" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C120" s="88"/>
-      <c r="D120" s="88"/>
-      <c r="E120" s="48">
-        <v>2</v>
-      </c>
-      <c r="F120" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G119" s="132"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" s="128"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="45">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G120" s="133"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="129"/>
-      <c r="B121" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C121" s="88"/>
-      <c r="D121" s="88"/>
-      <c r="E121" s="48">
-        <v>2</v>
-      </c>
-      <c r="F121" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G120" s="132"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" s="128"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="45">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G121" s="133"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="129"/>
-      <c r="B122" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C122" s="88"/>
-      <c r="D122" s="88"/>
-      <c r="E122" s="48">
-        <v>2</v>
-      </c>
-      <c r="F122" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G121" s="132"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="128"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="45">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G122" s="133"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="129"/>
-      <c r="B123" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C123" s="88"/>
-      <c r="D123" s="88"/>
-      <c r="E123" s="48">
-        <v>2</v>
-      </c>
-      <c r="F123" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G122" s="132"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A123" s="128"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="45">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G123" s="133"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="129"/>
-      <c r="B124" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C124" s="88"/>
-      <c r="D124" s="88"/>
-      <c r="E124" s="48">
-        <v>2</v>
-      </c>
-      <c r="F124" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G123" s="132"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" s="128"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="45">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G124" s="133"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="129"/>
-      <c r="B125" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C125" s="88"/>
-      <c r="D125" s="88"/>
-      <c r="E125" s="48">
-        <v>2</v>
-      </c>
-      <c r="F125" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G124" s="132"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" s="128"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="69"/>
+      <c r="D125" s="69"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="45">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G125" s="133"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="129"/>
-      <c r="B126" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C126" s="88"/>
-      <c r="D126" s="88"/>
-      <c r="E126" s="48">
-        <v>2</v>
-      </c>
-      <c r="F126" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G125" s="132"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126" s="128"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="45">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G126" s="133"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G126" s="132"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="41"/>
-      <c r="B127" s="102" t="s">
+      <c r="B127" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="103"/>
-      <c r="D127" s="104"/>
+      <c r="C127" s="102"/>
+      <c r="D127" s="103"/>
       <c r="E127" s="43">
         <f>SUM(E117:E126)</f>
-        <v>20</v>
-      </c>
-      <c r="F127" s="43" t="e">
+        <v>6</v>
+      </c>
+      <c r="F127" s="43">
         <f>SUM(F117:F126)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G127" s="46" t="e">
+        <v>6</v>
+      </c>
+      <c r="G127" s="46">
         <f>SUM(G117:G126)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="150.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="150.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="37"/>
       <c r="B128" s="38"/>
       <c r="C128" s="38"/>
@@ -3697,19 +3432,19 @@
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="66" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B129" s="67"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="68"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B129" s="66"/>
+      <c r="C129" s="66"/>
+      <c r="D129" s="66"/>
+      <c r="E129" s="66"/>
+      <c r="F129" s="66"/>
+      <c r="G129" s="66"/>
+      <c r="H129" s="67"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="37"/>
       <c r="B130" s="38"/>
       <c r="C130" s="38"/>
@@ -3717,15 +3452,15 @@
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
     </row>
-    <row r="131" spans="1:8" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B131" s="78" t="s">
+      <c r="B131" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C131" s="79"/>
-      <c r="D131" s="79"/>
+      <c r="C131" s="94"/>
+      <c r="D131" s="94"/>
       <c r="E131" s="26" t="s">
         <v>0</v>
       </c>
@@ -3736,357 +3471,277 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="129" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A132" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="B132" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C132" s="88"/>
-      <c r="D132" s="88"/>
-      <c r="E132" s="48">
-        <v>3</v>
-      </c>
-      <c r="F132" s="45" t="e">
+      <c r="B132" s="68"/>
+      <c r="C132" s="69"/>
+      <c r="D132" s="69"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="45">
         <f>E132*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G132" s="72" t="e">
+        <v>0</v>
+      </c>
+      <c r="G132" s="73">
         <f>SUM(F132:F141)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="129"/>
-      <c r="B133" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C133" s="88"/>
-      <c r="D133" s="88"/>
-      <c r="E133" s="48">
-        <v>3</v>
-      </c>
-      <c r="F133" s="45" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A133" s="128"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="69"/>
+      <c r="D133" s="69"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="45">
         <f t="shared" ref="F133:F141" si="6">E133*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G133" s="133"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="129"/>
-      <c r="B134" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C134" s="88"/>
-      <c r="D134" s="88"/>
-      <c r="E134" s="48">
-        <v>3</v>
-      </c>
-      <c r="F134" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G133" s="132"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134" s="128"/>
+      <c r="B134" s="68"/>
+      <c r="C134" s="69"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="45">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G134" s="133"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="129"/>
-      <c r="B135" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C135" s="88"/>
-      <c r="D135" s="88"/>
-      <c r="E135" s="48">
-        <v>3</v>
-      </c>
-      <c r="F135" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G134" s="132"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A135" s="128"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="69"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="45">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G135" s="133"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="129"/>
-      <c r="B136" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C136" s="88"/>
-      <c r="D136" s="88"/>
-      <c r="E136" s="48">
-        <v>3</v>
-      </c>
-      <c r="F136" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G135" s="132"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A136" s="128"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="69"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="48"/>
+      <c r="F136" s="45">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G136" s="133"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="129"/>
-      <c r="B137" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C137" s="88"/>
-      <c r="D137" s="88"/>
-      <c r="E137" s="48">
-        <v>3</v>
-      </c>
-      <c r="F137" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G136" s="132"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A137" s="128"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="69"/>
+      <c r="D137" s="69"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="45">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G137" s="133"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="129"/>
-      <c r="B138" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C138" s="88"/>
-      <c r="D138" s="88"/>
-      <c r="E138" s="48">
-        <v>3</v>
-      </c>
-      <c r="F138" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G137" s="132"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A138" s="128"/>
+      <c r="B138" s="68"/>
+      <c r="C138" s="69"/>
+      <c r="D138" s="69"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="45">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G138" s="133"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="129"/>
-      <c r="B139" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C139" s="88"/>
-      <c r="D139" s="88"/>
-      <c r="E139" s="48">
-        <v>3</v>
-      </c>
-      <c r="F139" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G138" s="132"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A139" s="128"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="69"/>
+      <c r="D139" s="69"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="45">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G139" s="133"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="129"/>
-      <c r="B140" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C140" s="88"/>
-      <c r="D140" s="88"/>
-      <c r="E140" s="48">
-        <v>3</v>
-      </c>
-      <c r="F140" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G139" s="132"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A140" s="128"/>
+      <c r="B140" s="68"/>
+      <c r="C140" s="69"/>
+      <c r="D140" s="69"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="45">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G140" s="133"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="129"/>
-      <c r="B141" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C141" s="88"/>
-      <c r="D141" s="88"/>
-      <c r="E141" s="48">
-        <v>3</v>
-      </c>
-      <c r="F141" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G140" s="132"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A141" s="128"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="69"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="45">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G141" s="133"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="G141" s="132"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A142" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="B142" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C142" s="88"/>
-      <c r="D142" s="88"/>
-      <c r="E142" s="48">
-        <v>3</v>
-      </c>
-      <c r="F142" s="45" t="e">
+      <c r="B142" s="68"/>
+      <c r="C142" s="69"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="45">
         <f>E142*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G142" s="72" t="e">
+        <v>0</v>
+      </c>
+      <c r="G142" s="73">
         <f>SUM(F142:F151)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="129"/>
-      <c r="B143" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C143" s="88"/>
-      <c r="D143" s="88"/>
-      <c r="E143" s="48">
-        <v>3</v>
-      </c>
-      <c r="F143" s="45" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A143" s="128"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="69"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="45">
         <f t="shared" ref="F143:F151" si="7">E143*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G143" s="133"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="129"/>
-      <c r="B144" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C144" s="88"/>
-      <c r="D144" s="88"/>
-      <c r="E144" s="48">
-        <v>3</v>
-      </c>
-      <c r="F144" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G143" s="132"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A144" s="128"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="69"/>
+      <c r="D144" s="69"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="45">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G144" s="133"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="129"/>
-      <c r="B145" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C145" s="88"/>
-      <c r="D145" s="88"/>
-      <c r="E145" s="48">
-        <v>3</v>
-      </c>
-      <c r="F145" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G144" s="132"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A145" s="128"/>
+      <c r="B145" s="68"/>
+      <c r="C145" s="69"/>
+      <c r="D145" s="69"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="45">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G145" s="133"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="129"/>
-      <c r="B146" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C146" s="88"/>
-      <c r="D146" s="88"/>
-      <c r="E146" s="48">
-        <v>3</v>
-      </c>
-      <c r="F146" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G145" s="132"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A146" s="128"/>
+      <c r="B146" s="68"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="45">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G146" s="133"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="129"/>
-      <c r="B147" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C147" s="88"/>
-      <c r="D147" s="88"/>
-      <c r="E147" s="48">
-        <v>3</v>
-      </c>
-      <c r="F147" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G146" s="132"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A147" s="128"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="45">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G147" s="133"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="129"/>
-      <c r="B148" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C148" s="88"/>
-      <c r="D148" s="88"/>
-      <c r="E148" s="48">
-        <v>3</v>
-      </c>
-      <c r="F148" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G147" s="132"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A148" s="128"/>
+      <c r="B148" s="68"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="45">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G148" s="133"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="129"/>
-      <c r="B149" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C149" s="88"/>
-      <c r="D149" s="88"/>
-      <c r="E149" s="48">
-        <v>3</v>
-      </c>
-      <c r="F149" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G148" s="132"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A149" s="128"/>
+      <c r="B149" s="68"/>
+      <c r="C149" s="69"/>
+      <c r="D149" s="69"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="45">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G149" s="133"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="129"/>
-      <c r="B150" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C150" s="88"/>
-      <c r="D150" s="88"/>
-      <c r="E150" s="48">
-        <v>3</v>
-      </c>
-      <c r="F150" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G149" s="132"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A150" s="128"/>
+      <c r="B150" s="68"/>
+      <c r="C150" s="69"/>
+      <c r="D150" s="69"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="45">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G150" s="133"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="129"/>
-      <c r="B151" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C151" s="88"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="48">
-        <v>3</v>
-      </c>
-      <c r="F151" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G150" s="132"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A151" s="128"/>
+      <c r="B151" s="68"/>
+      <c r="C151" s="69"/>
+      <c r="D151" s="69"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="45">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G151" s="133"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G151" s="132"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="41"/>
-      <c r="B152" s="102" t="s">
+      <c r="B152" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="103"/>
-      <c r="D152" s="104"/>
+      <c r="C152" s="102"/>
+      <c r="D152" s="103"/>
       <c r="E152" s="43">
         <f>SUM(E132:E151)</f>
-        <v>60</v>
-      </c>
-      <c r="F152" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="F152" s="43">
         <f>SUM(F132:F151)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G152" s="46" t="e">
+        <v>0</v>
+      </c>
+      <c r="G152" s="46">
         <f>SUM(G132:G151)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="150.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="150.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="37"/>
       <c r="B153" s="38"/>
       <c r="C153" s="38"/>
@@ -4094,19 +3749,19 @@
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="66" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A154" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B154" s="67"/>
-      <c r="C154" s="67"/>
-      <c r="D154" s="67"/>
-      <c r="E154" s="67"/>
-      <c r="F154" s="67"/>
-      <c r="G154" s="67"/>
-      <c r="H154" s="68"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B154" s="66"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="66"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="66"/>
+      <c r="G154" s="66"/>
+      <c r="H154" s="67"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="37"/>
       <c r="B155" s="38"/>
       <c r="C155" s="38"/>
@@ -4114,15 +3769,15 @@
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
     </row>
-    <row r="156" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A156" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B156" s="78" t="s">
+      <c r="B156" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C156" s="79"/>
-      <c r="D156" s="79"/>
+      <c r="C156" s="94"/>
+      <c r="D156" s="94"/>
       <c r="E156" s="26" t="s">
         <v>0</v>
       </c>
@@ -4133,357 +3788,277 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="129" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A157" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="B157" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C157" s="88"/>
-      <c r="D157" s="88"/>
-      <c r="E157" s="48">
-        <v>4</v>
-      </c>
-      <c r="F157" s="45" t="e">
+      <c r="B157" s="68"/>
+      <c r="C157" s="69"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="48"/>
+      <c r="F157" s="45">
         <f>E157*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G157" s="72" t="e">
+        <v>0</v>
+      </c>
+      <c r="G157" s="73">
         <f>SUM(F157:F166)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="129"/>
-      <c r="B158" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C158" s="88"/>
-      <c r="D158" s="88"/>
-      <c r="E158" s="48">
-        <v>4</v>
-      </c>
-      <c r="F158" s="45" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A158" s="128"/>
+      <c r="B158" s="68"/>
+      <c r="C158" s="69"/>
+      <c r="D158" s="69"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="45">
         <f t="shared" ref="F158:F166" si="8">E158*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G158" s="133"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="129"/>
-      <c r="B159" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C159" s="88"/>
-      <c r="D159" s="88"/>
-      <c r="E159" s="48">
-        <v>4</v>
-      </c>
-      <c r="F159" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G158" s="132"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A159" s="128"/>
+      <c r="B159" s="68"/>
+      <c r="C159" s="69"/>
+      <c r="D159" s="69"/>
+      <c r="E159" s="48"/>
+      <c r="F159" s="45">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G159" s="133"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="129"/>
-      <c r="B160" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C160" s="88"/>
-      <c r="D160" s="88"/>
-      <c r="E160" s="48">
-        <v>4</v>
-      </c>
-      <c r="F160" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G159" s="132"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A160" s="128"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="69"/>
+      <c r="D160" s="69"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="45">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G160" s="133"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="129"/>
-      <c r="B161" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C161" s="88"/>
-      <c r="D161" s="88"/>
-      <c r="E161" s="48">
-        <v>4</v>
-      </c>
-      <c r="F161" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G160" s="132"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A161" s="128"/>
+      <c r="B161" s="68"/>
+      <c r="C161" s="69"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="45">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G161" s="133"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="129"/>
-      <c r="B162" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C162" s="88"/>
-      <c r="D162" s="88"/>
-      <c r="E162" s="48">
-        <v>4</v>
-      </c>
-      <c r="F162" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G161" s="132"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A162" s="128"/>
+      <c r="B162" s="68"/>
+      <c r="C162" s="69"/>
+      <c r="D162" s="69"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="45">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G162" s="133"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="129"/>
-      <c r="B163" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C163" s="88"/>
-      <c r="D163" s="88"/>
-      <c r="E163" s="48">
-        <v>4</v>
-      </c>
-      <c r="F163" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G162" s="132"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A163" s="128"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="69"/>
+      <c r="D163" s="69"/>
+      <c r="E163" s="48"/>
+      <c r="F163" s="45">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G163" s="133"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="129"/>
-      <c r="B164" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C164" s="88"/>
-      <c r="D164" s="88"/>
-      <c r="E164" s="48">
-        <v>4</v>
-      </c>
-      <c r="F164" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G163" s="132"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A164" s="128"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="69"/>
+      <c r="D164" s="69"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="45">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G164" s="133"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="129"/>
-      <c r="B165" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C165" s="88"/>
-      <c r="D165" s="88"/>
-      <c r="E165" s="48">
-        <v>4</v>
-      </c>
-      <c r="F165" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G164" s="132"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A165" s="128"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="69"/>
+      <c r="D165" s="69"/>
+      <c r="E165" s="48"/>
+      <c r="F165" s="45">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G165" s="133"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="129"/>
-      <c r="B166" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C166" s="88"/>
-      <c r="D166" s="88"/>
-      <c r="E166" s="48">
-        <v>4</v>
-      </c>
-      <c r="F166" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G165" s="132"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A166" s="128"/>
+      <c r="B166" s="68"/>
+      <c r="C166" s="69"/>
+      <c r="D166" s="69"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="45">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G166" s="133"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="G166" s="132"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A167" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="B167" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C167" s="88"/>
-      <c r="D167" s="88"/>
-      <c r="E167" s="48">
-        <v>4</v>
-      </c>
-      <c r="F167" s="45" t="e">
+      <c r="B167" s="68"/>
+      <c r="C167" s="69"/>
+      <c r="D167" s="69"/>
+      <c r="E167" s="48"/>
+      <c r="F167" s="45">
         <f>E167*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G167" s="72" t="e">
+        <v>0</v>
+      </c>
+      <c r="G167" s="73">
         <f>SUM(F167:F176)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="129"/>
-      <c r="B168" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C168" s="88"/>
-      <c r="D168" s="88"/>
-      <c r="E168" s="48">
-        <v>4</v>
-      </c>
-      <c r="F168" s="45" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A168" s="128"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="69"/>
+      <c r="D168" s="69"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="45">
         <f t="shared" ref="F168:F176" si="9">E168*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G168" s="133"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="129"/>
-      <c r="B169" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C169" s="88"/>
-      <c r="D169" s="88"/>
-      <c r="E169" s="48">
-        <v>4</v>
-      </c>
-      <c r="F169" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G168" s="132"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A169" s="128"/>
+      <c r="B169" s="68"/>
+      <c r="C169" s="69"/>
+      <c r="D169" s="69"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="45">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G169" s="133"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="129"/>
-      <c r="B170" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C170" s="88"/>
-      <c r="D170" s="88"/>
-      <c r="E170" s="48">
-        <v>4</v>
-      </c>
-      <c r="F170" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G169" s="132"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A170" s="128"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="69"/>
+      <c r="D170" s="69"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="45">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G170" s="133"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="129"/>
-      <c r="B171" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C171" s="88"/>
-      <c r="D171" s="88"/>
-      <c r="E171" s="48">
-        <v>4</v>
-      </c>
-      <c r="F171" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G170" s="132"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A171" s="128"/>
+      <c r="B171" s="68"/>
+      <c r="C171" s="69"/>
+      <c r="D171" s="69"/>
+      <c r="E171" s="48"/>
+      <c r="F171" s="45">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G171" s="133"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="129"/>
-      <c r="B172" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C172" s="88"/>
-      <c r="D172" s="88"/>
-      <c r="E172" s="48">
-        <v>4</v>
-      </c>
-      <c r="F172" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G171" s="132"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A172" s="128"/>
+      <c r="B172" s="68"/>
+      <c r="C172" s="69"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="45">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G172" s="133"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="129"/>
-      <c r="B173" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C173" s="88"/>
-      <c r="D173" s="88"/>
-      <c r="E173" s="48">
-        <v>4</v>
-      </c>
-      <c r="F173" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G172" s="132"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A173" s="128"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="69"/>
+      <c r="D173" s="69"/>
+      <c r="E173" s="48"/>
+      <c r="F173" s="45">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G173" s="133"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="129"/>
-      <c r="B174" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C174" s="88"/>
-      <c r="D174" s="88"/>
-      <c r="E174" s="48">
-        <v>4</v>
-      </c>
-      <c r="F174" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G173" s="132"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A174" s="128"/>
+      <c r="B174" s="68"/>
+      <c r="C174" s="69"/>
+      <c r="D174" s="69"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="45">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G174" s="133"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="129"/>
-      <c r="B175" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C175" s="88"/>
-      <c r="D175" s="88"/>
-      <c r="E175" s="48">
-        <v>4</v>
-      </c>
-      <c r="F175" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G174" s="132"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A175" s="128"/>
+      <c r="B175" s="68"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="69"/>
+      <c r="E175" s="48"/>
+      <c r="F175" s="45">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G175" s="133"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="129"/>
-      <c r="B176" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C176" s="88"/>
-      <c r="D176" s="88"/>
-      <c r="E176" s="48">
-        <v>4</v>
-      </c>
-      <c r="F176" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G175" s="132"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A176" s="128"/>
+      <c r="B176" s="68"/>
+      <c r="C176" s="69"/>
+      <c r="D176" s="69"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="45">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G176" s="133"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G176" s="132"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A177" s="41"/>
-      <c r="B177" s="102" t="s">
+      <c r="B177" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C177" s="103"/>
-      <c r="D177" s="104"/>
+      <c r="C177" s="102"/>
+      <c r="D177" s="103"/>
       <c r="E177" s="43">
         <f>SUM(E157:E176)</f>
-        <v>80</v>
-      </c>
-      <c r="F177" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="F177" s="43">
         <f>SUM(F157:F176)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G177" s="46" t="e">
+        <v>0</v>
+      </c>
+      <c r="G177" s="46">
         <f>SUM(G157:G176)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="150.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="150.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="37"/>
       <c r="B178" s="38"/>
       <c r="C178" s="38"/>
@@ -4491,19 +4066,19 @@
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
     </row>
-    <row r="179" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="66" t="s">
+    <row r="179" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B179" s="67"/>
-      <c r="C179" s="67"/>
-      <c r="D179" s="67"/>
-      <c r="E179" s="67"/>
-      <c r="F179" s="67"/>
-      <c r="G179" s="67"/>
-      <c r="H179" s="68"/>
-    </row>
-    <row r="180" spans="1:8" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="66"/>
+      <c r="C179" s="66"/>
+      <c r="D179" s="66"/>
+      <c r="E179" s="66"/>
+      <c r="F179" s="66"/>
+      <c r="G179" s="66"/>
+      <c r="H179" s="67"/>
+    </row>
+    <row r="180" spans="1:8" ht="9.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -4512,15 +4087,15 @@
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
     </row>
-    <row r="181" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A181" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B181" s="134" t="s">
+      <c r="B181" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="C181" s="134"/>
-      <c r="D181" s="134"/>
+      <c r="C181" s="133"/>
+      <c r="D181" s="133"/>
       <c r="E181" s="20" t="s">
         <v>0</v>
       </c>
@@ -4531,667 +4106,523 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="109" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A182" s="108" t="s">
         <v>65</v>
       </c>
       <c r="B182" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C182" s="61"/>
-      <c r="D182" s="57"/>
+        <v>83</v>
+      </c>
+      <c r="C182" s="134"/>
+      <c r="D182" s="135"/>
       <c r="E182" s="49">
-        <v>5</v>
-      </c>
-      <c r="F182" s="45" t="e">
+        <v>6</v>
+      </c>
+      <c r="F182" s="45">
         <f>E182*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G182" s="72" t="e">
+        <v>6</v>
+      </c>
+      <c r="G182" s="73">
         <f>SUM(F182:F191)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="110"/>
-      <c r="B183" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C183" s="61"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="49">
-        <v>5</v>
-      </c>
-      <c r="F183" s="45" t="e">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="109"/>
+      <c r="B183" s="60"/>
+      <c r="C183" s="134"/>
+      <c r="D183" s="135"/>
+      <c r="E183" s="49"/>
+      <c r="F183" s="45">
         <f t="shared" ref="F183:F191" si="10">E183*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G183" s="73"/>
-    </row>
-    <row r="184" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="110"/>
-      <c r="B184" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C184" s="61"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="49">
-        <v>5</v>
-      </c>
-      <c r="F184" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G183" s="74"/>
+    </row>
+    <row r="184" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="109"/>
+      <c r="B184" s="60"/>
+      <c r="C184" s="134"/>
+      <c r="D184" s="135"/>
+      <c r="E184" s="49"/>
+      <c r="F184" s="45">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G184" s="73"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="110"/>
-      <c r="B185" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C185" s="61"/>
-      <c r="D185" s="57"/>
-      <c r="E185" s="49">
-        <v>5</v>
-      </c>
-      <c r="F185" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G184" s="74"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A185" s="109"/>
+      <c r="B185" s="60"/>
+      <c r="C185" s="134"/>
+      <c r="D185" s="135"/>
+      <c r="E185" s="49"/>
+      <c r="F185" s="45">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G185" s="73"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="110"/>
-      <c r="B186" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C186" s="61"/>
-      <c r="D186" s="57"/>
-      <c r="E186" s="49">
-        <v>5</v>
-      </c>
-      <c r="F186" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G185" s="74"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A186" s="109"/>
+      <c r="B186" s="60"/>
+      <c r="C186" s="134"/>
+      <c r="D186" s="135"/>
+      <c r="E186" s="49"/>
+      <c r="F186" s="45">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G186" s="73"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="110"/>
-      <c r="B187" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C187" s="61"/>
-      <c r="D187" s="57"/>
-      <c r="E187" s="49">
-        <v>5</v>
-      </c>
-      <c r="F187" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G186" s="74"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A187" s="109"/>
+      <c r="B187" s="60"/>
+      <c r="C187" s="134"/>
+      <c r="D187" s="135"/>
+      <c r="E187" s="49"/>
+      <c r="F187" s="45">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G187" s="73"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="110"/>
-      <c r="B188" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C188" s="61"/>
-      <c r="D188" s="57"/>
-      <c r="E188" s="49">
-        <v>5</v>
-      </c>
-      <c r="F188" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G187" s="74"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A188" s="109"/>
+      <c r="B188" s="60"/>
+      <c r="C188" s="134"/>
+      <c r="D188" s="135"/>
+      <c r="E188" s="49"/>
+      <c r="F188" s="45">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G188" s="73"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="110"/>
-      <c r="B189" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C189" s="61"/>
-      <c r="D189" s="57"/>
-      <c r="E189" s="49">
-        <v>5</v>
-      </c>
-      <c r="F189" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G188" s="74"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A189" s="109"/>
+      <c r="B189" s="60"/>
+      <c r="C189" s="134"/>
+      <c r="D189" s="135"/>
+      <c r="E189" s="49"/>
+      <c r="F189" s="45">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G189" s="73"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="110"/>
-      <c r="B190" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C190" s="61"/>
-      <c r="D190" s="57"/>
-      <c r="E190" s="49">
-        <v>5</v>
-      </c>
-      <c r="F190" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G189" s="74"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A190" s="109"/>
+      <c r="B190" s="60"/>
+      <c r="C190" s="134"/>
+      <c r="D190" s="135"/>
+      <c r="E190" s="49"/>
+      <c r="F190" s="45">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G190" s="73"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="111"/>
-      <c r="B191" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C191" s="61"/>
-      <c r="D191" s="57"/>
-      <c r="E191" s="49">
-        <v>5</v>
-      </c>
-      <c r="F191" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G190" s="74"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A191" s="110"/>
+      <c r="B191" s="60"/>
+      <c r="C191" s="134"/>
+      <c r="D191" s="135"/>
+      <c r="E191" s="49"/>
+      <c r="F191" s="45">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G191" s="74"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G191" s="75"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A192" s="108" t="s">
         <v>66</v>
       </c>
       <c r="B192" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C192" s="61"/>
-      <c r="D192" s="57"/>
+        <v>83</v>
+      </c>
+      <c r="C192" s="134"/>
+      <c r="D192" s="135"/>
       <c r="E192" s="49">
-        <v>5</v>
-      </c>
-      <c r="F192" s="45" t="e">
+        <v>6</v>
+      </c>
+      <c r="F192" s="45">
         <f t="shared" ref="F192:F221" si="11">E192*$C$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G192" s="72" t="e">
+        <v>6</v>
+      </c>
+      <c r="G192" s="73">
         <f>SUM(F192:F201)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="110"/>
-      <c r="B193" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C193" s="61"/>
-      <c r="D193" s="57"/>
-      <c r="E193" s="49">
-        <v>5</v>
-      </c>
-      <c r="F193" s="45" t="e">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="109"/>
+      <c r="B193" s="60"/>
+      <c r="C193" s="134"/>
+      <c r="D193" s="135"/>
+      <c r="E193" s="49"/>
+      <c r="F193" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G193" s="73"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="110"/>
-      <c r="B194" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C194" s="61"/>
-      <c r="D194" s="57"/>
-      <c r="E194" s="49">
-        <v>5</v>
-      </c>
-      <c r="F194" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G193" s="74"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A194" s="109"/>
+      <c r="B194" s="60"/>
+      <c r="C194" s="134"/>
+      <c r="D194" s="135"/>
+      <c r="E194" s="49"/>
+      <c r="F194" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G194" s="73"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="110"/>
-      <c r="B195" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C195" s="61"/>
-      <c r="D195" s="57"/>
-      <c r="E195" s="49">
-        <v>5</v>
-      </c>
-      <c r="F195" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G194" s="74"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A195" s="109"/>
+      <c r="B195" s="60"/>
+      <c r="C195" s="134"/>
+      <c r="D195" s="135"/>
+      <c r="E195" s="49"/>
+      <c r="F195" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G195" s="73"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="110"/>
-      <c r="B196" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C196" s="61"/>
-      <c r="D196" s="57"/>
-      <c r="E196" s="49">
-        <v>5</v>
-      </c>
-      <c r="F196" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G195" s="74"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A196" s="109"/>
+      <c r="B196" s="60"/>
+      <c r="C196" s="134"/>
+      <c r="D196" s="135"/>
+      <c r="E196" s="49"/>
+      <c r="F196" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G196" s="73"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="110"/>
-      <c r="B197" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C197" s="61"/>
-      <c r="D197" s="57"/>
-      <c r="E197" s="49">
-        <v>5</v>
-      </c>
-      <c r="F197" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G196" s="74"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A197" s="109"/>
+      <c r="B197" s="60"/>
+      <c r="C197" s="134"/>
+      <c r="D197" s="135"/>
+      <c r="E197" s="49"/>
+      <c r="F197" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G197" s="73"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="110"/>
-      <c r="B198" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C198" s="61"/>
-      <c r="D198" s="57"/>
-      <c r="E198" s="49">
-        <v>5</v>
-      </c>
-      <c r="F198" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G197" s="74"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A198" s="109"/>
+      <c r="B198" s="60"/>
+      <c r="C198" s="134"/>
+      <c r="D198" s="135"/>
+      <c r="E198" s="49"/>
+      <c r="F198" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G198" s="73"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="110"/>
-      <c r="B199" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C199" s="61"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="49">
-        <v>5</v>
-      </c>
-      <c r="F199" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G198" s="74"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A199" s="109"/>
+      <c r="B199" s="60"/>
+      <c r="C199" s="134"/>
+      <c r="D199" s="135"/>
+      <c r="E199" s="49"/>
+      <c r="F199" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G199" s="73"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="110"/>
-      <c r="B200" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C200" s="61"/>
-      <c r="D200" s="57"/>
-      <c r="E200" s="49">
-        <v>5</v>
-      </c>
-      <c r="F200" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G199" s="74"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A200" s="109"/>
+      <c r="B200" s="60"/>
+      <c r="C200" s="134"/>
+      <c r="D200" s="135"/>
+      <c r="E200" s="49"/>
+      <c r="F200" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G200" s="73"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="111"/>
-      <c r="B201" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C201" s="61"/>
-      <c r="D201" s="57"/>
-      <c r="E201" s="49">
-        <v>5</v>
-      </c>
-      <c r="F201" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G200" s="74"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A201" s="110"/>
+      <c r="B201" s="60"/>
+      <c r="C201" s="134"/>
+      <c r="D201" s="135"/>
+      <c r="E201" s="49"/>
+      <c r="F201" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G201" s="74"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G201" s="75"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A202" s="108" t="s">
         <v>67</v>
       </c>
       <c r="B202" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C202" s="61"/>
-      <c r="D202" s="57"/>
+        <v>84</v>
+      </c>
+      <c r="C202" s="134"/>
+      <c r="D202" s="135"/>
       <c r="E202" s="49">
-        <v>5</v>
-      </c>
-      <c r="F202" s="45" t="e">
+        <v>9</v>
+      </c>
+      <c r="F202" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G202" s="72" t="e">
+        <v>9</v>
+      </c>
+      <c r="G202" s="73">
         <f>SUM(F202:F211)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="110"/>
-      <c r="B203" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C203" s="61"/>
-      <c r="D203" s="57"/>
-      <c r="E203" s="49">
-        <v>5</v>
-      </c>
-      <c r="F203" s="45" t="e">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="109"/>
+      <c r="B203" s="60"/>
+      <c r="C203" s="134"/>
+      <c r="D203" s="135"/>
+      <c r="E203" s="49"/>
+      <c r="F203" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G203" s="73"/>
-    </row>
-    <row r="204" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="110"/>
-      <c r="B204" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C204" s="61"/>
-      <c r="D204" s="57"/>
-      <c r="E204" s="49">
-        <v>5</v>
-      </c>
-      <c r="F204" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G203" s="74"/>
+    </row>
+    <row r="204" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="109"/>
+      <c r="B204" s="60"/>
+      <c r="C204" s="134"/>
+      <c r="D204" s="135"/>
+      <c r="E204" s="49"/>
+      <c r="F204" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G204" s="73"/>
-    </row>
-    <row r="205" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="110"/>
-      <c r="B205" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C205" s="61"/>
-      <c r="D205" s="57"/>
-      <c r="E205" s="49">
-        <v>5</v>
-      </c>
-      <c r="F205" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G204" s="74"/>
+    </row>
+    <row r="205" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="109"/>
+      <c r="B205" s="60"/>
+      <c r="C205" s="134"/>
+      <c r="D205" s="135"/>
+      <c r="E205" s="49"/>
+      <c r="F205" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G205" s="73"/>
-    </row>
-    <row r="206" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="110"/>
-      <c r="B206" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C206" s="61"/>
-      <c r="D206" s="57"/>
-      <c r="E206" s="49">
-        <v>5</v>
-      </c>
-      <c r="F206" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G205" s="74"/>
+    </row>
+    <row r="206" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="109"/>
+      <c r="B206" s="60"/>
+      <c r="C206" s="134"/>
+      <c r="D206" s="135"/>
+      <c r="E206" s="49"/>
+      <c r="F206" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G206" s="73"/>
-    </row>
-    <row r="207" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="110"/>
-      <c r="B207" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C207" s="61"/>
-      <c r="D207" s="57"/>
-      <c r="E207" s="49">
-        <v>5</v>
-      </c>
-      <c r="F207" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G206" s="74"/>
+    </row>
+    <row r="207" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="109"/>
+      <c r="B207" s="60"/>
+      <c r="C207" s="134"/>
+      <c r="D207" s="135"/>
+      <c r="E207" s="49"/>
+      <c r="F207" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G207" s="73"/>
-    </row>
-    <row r="208" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="110"/>
-      <c r="B208" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C208" s="61"/>
-      <c r="D208" s="57"/>
-      <c r="E208" s="49">
-        <v>5</v>
-      </c>
-      <c r="F208" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G207" s="74"/>
+    </row>
+    <row r="208" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="109"/>
+      <c r="B208" s="60"/>
+      <c r="C208" s="134"/>
+      <c r="D208" s="135"/>
+      <c r="E208" s="49"/>
+      <c r="F208" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G208" s="73"/>
-    </row>
-    <row r="209" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="110"/>
-      <c r="B209" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C209" s="61"/>
-      <c r="D209" s="57"/>
-      <c r="E209" s="49">
-        <v>5</v>
-      </c>
-      <c r="F209" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G208" s="74"/>
+    </row>
+    <row r="209" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="109"/>
+      <c r="B209" s="60"/>
+      <c r="C209" s="134"/>
+      <c r="D209" s="135"/>
+      <c r="E209" s="49"/>
+      <c r="F209" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G209" s="73"/>
-    </row>
-    <row r="210" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="110"/>
-      <c r="B210" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C210" s="61"/>
-      <c r="D210" s="57"/>
-      <c r="E210" s="49">
-        <v>5</v>
-      </c>
-      <c r="F210" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G209" s="74"/>
+    </row>
+    <row r="210" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="109"/>
+      <c r="B210" s="60"/>
+      <c r="C210" s="134"/>
+      <c r="D210" s="135"/>
+      <c r="E210" s="49"/>
+      <c r="F210" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G210" s="73"/>
-    </row>
-    <row r="211" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="111"/>
-      <c r="B211" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C211" s="61"/>
-      <c r="D211" s="57"/>
-      <c r="E211" s="49">
-        <v>5</v>
-      </c>
-      <c r="F211" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G210" s="74"/>
+    </row>
+    <row r="211" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="110"/>
+      <c r="B211" s="60"/>
+      <c r="C211" s="134"/>
+      <c r="D211" s="135"/>
+      <c r="E211" s="49"/>
+      <c r="F211" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G211" s="74"/>
-    </row>
-    <row r="212" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G211" s="75"/>
+    </row>
+    <row r="212" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="108" t="s">
         <v>68</v>
       </c>
       <c r="B212" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C212" s="61"/>
-      <c r="D212" s="57"/>
+        <v>85</v>
+      </c>
+      <c r="C212" s="134"/>
+      <c r="D212" s="135"/>
       <c r="E212" s="49">
-        <v>5</v>
-      </c>
-      <c r="F212" s="45" t="e">
+        <v>8</v>
+      </c>
+      <c r="F212" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G212" s="72" t="e">
+        <v>8</v>
+      </c>
+      <c r="G212" s="73">
         <f>SUM(F212:F221)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="110"/>
-      <c r="B213" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C213" s="61"/>
-      <c r="D213" s="57"/>
-      <c r="E213" s="49">
-        <v>5</v>
-      </c>
-      <c r="F213" s="45" t="e">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="109"/>
+      <c r="B213" s="60"/>
+      <c r="C213" s="134"/>
+      <c r="D213" s="135"/>
+      <c r="E213" s="49"/>
+      <c r="F213" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G213" s="73"/>
-    </row>
-    <row r="214" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="110"/>
-      <c r="B214" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C214" s="61"/>
-      <c r="D214" s="57"/>
-      <c r="E214" s="49">
-        <v>5</v>
-      </c>
-      <c r="F214" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G213" s="74"/>
+    </row>
+    <row r="214" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="109"/>
+      <c r="B214" s="60"/>
+      <c r="C214" s="134"/>
+      <c r="D214" s="135"/>
+      <c r="E214" s="49"/>
+      <c r="F214" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G214" s="73"/>
-    </row>
-    <row r="215" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="110"/>
-      <c r="B215" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C215" s="61"/>
-      <c r="D215" s="57"/>
-      <c r="E215" s="49">
-        <v>5</v>
-      </c>
-      <c r="F215" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G214" s="74"/>
+    </row>
+    <row r="215" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="109"/>
+      <c r="B215" s="60"/>
+      <c r="C215" s="134"/>
+      <c r="D215" s="135"/>
+      <c r="E215" s="49"/>
+      <c r="F215" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G215" s="73"/>
-    </row>
-    <row r="216" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="110"/>
-      <c r="B216" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C216" s="61"/>
-      <c r="D216" s="57"/>
-      <c r="E216" s="49">
-        <v>5</v>
-      </c>
-      <c r="F216" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G215" s="74"/>
+    </row>
+    <row r="216" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="109"/>
+      <c r="B216" s="60"/>
+      <c r="C216" s="134"/>
+      <c r="D216" s="135"/>
+      <c r="E216" s="49"/>
+      <c r="F216" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G216" s="73"/>
-    </row>
-    <row r="217" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="110"/>
-      <c r="B217" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C217" s="61"/>
-      <c r="D217" s="57"/>
-      <c r="E217" s="49">
-        <v>5</v>
-      </c>
-      <c r="F217" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G216" s="74"/>
+    </row>
+    <row r="217" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="109"/>
+      <c r="B217" s="60"/>
+      <c r="C217" s="134"/>
+      <c r="D217" s="135"/>
+      <c r="E217" s="49"/>
+      <c r="F217" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G217" s="73"/>
-    </row>
-    <row r="218" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="110"/>
-      <c r="B218" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C218" s="61"/>
-      <c r="D218" s="57"/>
-      <c r="E218" s="49">
-        <v>5</v>
-      </c>
-      <c r="F218" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G217" s="74"/>
+    </row>
+    <row r="218" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="109"/>
+      <c r="B218" s="60"/>
+      <c r="C218" s="134"/>
+      <c r="D218" s="135"/>
+      <c r="E218" s="49"/>
+      <c r="F218" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G218" s="73"/>
-    </row>
-    <row r="219" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="110"/>
-      <c r="B219" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C219" s="61"/>
-      <c r="D219" s="57"/>
-      <c r="E219" s="49">
-        <v>5</v>
-      </c>
-      <c r="F219" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G218" s="74"/>
+    </row>
+    <row r="219" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="109"/>
+      <c r="B219" s="60"/>
+      <c r="C219" s="134"/>
+      <c r="D219" s="135"/>
+      <c r="E219" s="49"/>
+      <c r="F219" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G219" s="73"/>
-    </row>
-    <row r="220" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="110"/>
-      <c r="B220" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C220" s="61"/>
-      <c r="D220" s="57"/>
-      <c r="E220" s="49">
-        <v>5</v>
-      </c>
-      <c r="F220" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G219" s="74"/>
+    </row>
+    <row r="220" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="109"/>
+      <c r="B220" s="60"/>
+      <c r="C220" s="134"/>
+      <c r="D220" s="135"/>
+      <c r="E220" s="49"/>
+      <c r="F220" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G220" s="73"/>
-    </row>
-    <row r="221" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="111"/>
-      <c r="B221" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C221" s="61"/>
-      <c r="D221" s="57"/>
-      <c r="E221" s="49">
-        <v>5</v>
-      </c>
-      <c r="F221" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="G220" s="74"/>
+    </row>
+    <row r="221" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="110"/>
+      <c r="B221" s="60"/>
+      <c r="C221" s="134"/>
+      <c r="D221" s="135"/>
+      <c r="E221" s="49"/>
+      <c r="F221" s="45">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G221" s="74"/>
-    </row>
-    <row r="222" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G221" s="75"/>
+    </row>
+    <row r="222" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="42"/>
       <c r="B222" s="58" t="s">
         <v>8</v>
@@ -5200,96 +4631,96 @@
       <c r="D222" s="58"/>
       <c r="E222" s="43">
         <f>SUM(E182:E221)</f>
-        <v>200</v>
-      </c>
-      <c r="F222" s="43" t="e">
+        <v>29</v>
+      </c>
+      <c r="F222" s="43">
         <f>SUM(F182:F221)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G222" s="46" t="e">
+        <v>29</v>
+      </c>
+      <c r="G222" s="46">
         <f>SUM(G182:G221)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="174" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="174" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B224" s="68"/>
-      <c r="C224" s="68"/>
-      <c r="D224" s="68"/>
-      <c r="E224" s="68"/>
-      <c r="F224" s="68"/>
-      <c r="G224" s="68"/>
-      <c r="H224" s="68"/>
-    </row>
-    <row r="225" spans="1:13" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="108" t="s">
+      <c r="B224" s="67"/>
+      <c r="C224" s="67"/>
+      <c r="D224" s="67"/>
+      <c r="E224" s="67"/>
+      <c r="F224" s="67"/>
+      <c r="G224" s="67"/>
+      <c r="H224" s="67"/>
+    </row>
+    <row r="225" spans="1:13" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B225" s="108"/>
-      <c r="C225" s="108"/>
-      <c r="D225" s="108"/>
-      <c r="E225" s="108"/>
-      <c r="F225" s="108"/>
-      <c r="G225" s="106"/>
-      <c r="H225" s="107"/>
-    </row>
-    <row r="226" spans="1:13" s="12" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="107"/>
+      <c r="C225" s="107"/>
+      <c r="D225" s="107"/>
+      <c r="E225" s="107"/>
+      <c r="F225" s="107"/>
+      <c r="G225" s="105"/>
+      <c r="H225" s="106"/>
+    </row>
+    <row r="226" spans="1:13" s="12" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
     </row>
-    <row r="227" spans="1:13" s="12" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="105" t="s">
+    <row r="227" spans="1:13" s="12" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B227" s="105"/>
-      <c r="C227" s="105"/>
-      <c r="D227" s="105"/>
-      <c r="E227" s="105"/>
-      <c r="F227" s="105"/>
-      <c r="G227" s="106"/>
-      <c r="H227" s="107"/>
+      <c r="B227" s="104"/>
+      <c r="C227" s="104"/>
+      <c r="D227" s="104"/>
+      <c r="E227" s="104"/>
+      <c r="F227" s="104"/>
+      <c r="G227" s="105"/>
+      <c r="H227" s="106"/>
       <c r="L227" s="13"/>
       <c r="M227" s="13"/>
     </row>
-    <row r="228" spans="1:13" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
     </row>
-    <row r="229" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="108" t="s">
+    <row r="229" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B229" s="106"/>
-      <c r="C229" s="106"/>
-      <c r="D229" s="106"/>
-      <c r="E229" s="106"/>
-      <c r="F229" s="106"/>
-      <c r="G229" s="106"/>
-      <c r="H229" s="107"/>
-    </row>
-    <row r="230" spans="1:13" s="12" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B229" s="105"/>
+      <c r="C229" s="105"/>
+      <c r="D229" s="105"/>
+      <c r="E229" s="105"/>
+      <c r="F229" s="105"/>
+      <c r="G229" s="105"/>
+      <c r="H229" s="106"/>
+    </row>
+    <row r="230" spans="1:13" s="12" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
     </row>
-    <row r="231" spans="1:13" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="105" t="s">
+    <row r="231" spans="1:13" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B231" s="106"/>
-      <c r="C231" s="106"/>
-      <c r="D231" s="106"/>
-      <c r="E231" s="106"/>
-      <c r="F231" s="106"/>
-      <c r="G231" s="106"/>
-      <c r="H231" s="107"/>
-    </row>
-    <row r="232" spans="1:13" s="12" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="105"/>
+      <c r="C231" s="105"/>
+      <c r="D231" s="105"/>
+      <c r="E231" s="105"/>
+      <c r="F231" s="105"/>
+      <c r="G231" s="105"/>
+      <c r="H231" s="106"/>
+    </row>
+    <row r="232" spans="1:13" s="12" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -5298,27 +4729,27 @@
       <c r="F232" s="14"/>
       <c r="G232" s="14"/>
     </row>
-    <row r="233" spans="1:13" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="13"/>
-      <c r="B233" s="64" t="s">
+      <c r="B233" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C233" s="65"/>
+      <c r="C233" s="64"/>
       <c r="D233" s="50"/>
       <c r="E233" s="1"/>
       <c r="F233" s="2"/>
     </row>
-    <row r="234" spans="1:13" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="13"/>
-      <c r="B234" s="64" t="s">
+      <c r="B234" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C234" s="65"/>
+      <c r="C234" s="64"/>
       <c r="D234" s="50"/>
       <c r="E234" s="1"/>
       <c r="F234" s="2"/>
     </row>
-    <row r="235" spans="1:13" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="13"/>
       <c r="B235" s="15"/>
       <c r="C235" s="15"/>
@@ -5326,19 +4757,19 @@
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
-    <row r="236" spans="1:13" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="108" t="s">
+    <row r="236" spans="1:13" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B236" s="83"/>
-      <c r="C236" s="83"/>
-      <c r="D236" s="83"/>
-      <c r="E236" s="83"/>
-      <c r="F236" s="83"/>
-      <c r="G236" s="83"/>
-      <c r="H236" s="83"/>
-    </row>
-    <row r="237" spans="1:13" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B236" s="85"/>
+      <c r="C236" s="85"/>
+      <c r="D236" s="85"/>
+      <c r="E236" s="85"/>
+      <c r="F236" s="85"/>
+      <c r="G236" s="85"/>
+      <c r="H236" s="85"/>
+    </row>
+    <row r="237" spans="1:13" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="13"/>
       <c r="B237" s="15"/>
       <c r="C237" s="15"/>
@@ -5346,19 +4777,19 @@
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
-    <row r="238" spans="1:13" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="105" t="s">
+    <row r="238" spans="1:13" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B238" s="83"/>
-      <c r="C238" s="83"/>
-      <c r="D238" s="83"/>
-      <c r="E238" s="83"/>
-      <c r="F238" s="83"/>
-      <c r="G238" s="83"/>
-      <c r="H238" s="83"/>
-    </row>
-    <row r="239" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="85"/>
+      <c r="C238" s="85"/>
+      <c r="D238" s="85"/>
+      <c r="E238" s="85"/>
+      <c r="F238" s="85"/>
+      <c r="G238" s="85"/>
+      <c r="H238" s="85"/>
+    </row>
+    <row r="239" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -5368,17 +4799,17 @@
       <c r="G239" s="10"/>
       <c r="L239" s="23"/>
     </row>
-    <row r="240" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B240" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C240" s="62" t="s">
+      <c r="C240" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D240" s="63"/>
+      <c r="D240" s="62"/>
       <c r="E240" s="20" t="s">
         <v>0</v>
       </c>
@@ -5392,7 +4823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="48">
         <f>$D$233</f>
         <v>0</v>
@@ -5414,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="48">
         <f t="shared" ref="A242:A305" si="12">$D$233</f>
         <v>0</v>
@@ -5436,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5458,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5480,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5502,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5524,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5546,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5568,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5590,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5612,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5634,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5656,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5678,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5700,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5722,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5744,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5766,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5788,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5810,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5832,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5854,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5876,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5898,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5920,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5942,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5964,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5986,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6008,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6030,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6052,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6074,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6096,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6118,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6140,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6162,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6184,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6206,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6228,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6250,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6272,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6294,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6316,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6338,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6360,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6382,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6404,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6426,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6448,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6470,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6492,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6514,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6536,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6558,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6580,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6602,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6624,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6646,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6668,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6690,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6712,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6734,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6756,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6778,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6800,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6822,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="40"/>
       <c r="B306" s="40"/>
       <c r="C306" s="58" t="s">
@@ -6843,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="19"/>
       <c r="B307" s="19"/>
       <c r="C307" s="34"/>
@@ -6853,35 +6284,35 @@
       <c r="G307" s="35"/>
       <c r="H307" s="35"/>
     </row>
-    <row r="308" spans="1:8" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="53" t="str">
         <f>IF(C22="","",IF(E306&lt;C21,"Sie haben die 2/3-Grenze unterschritten!                                           You deceeded the 2/3-rule!",IF(E306&gt;C21*1.05,"Sie haben die 2/3-Grenze überschritten!                         You exceeded the 2/3-rule!","")))</f>
-        <v/>
+        <v>Sie haben die 2/3-Grenze unterschritten!                                           You deceeded the 2/3-rule!</v>
       </c>
       <c r="B308" s="53"/>
       <c r="C308" s="53" t="str">
         <f>IF(C22="","",IF(E306&lt;C21,"Mindestens fehlende Credits:                                          At least missing Credits:",IF(E306&gt;C21*1.05,"Überschüssige Credits:                          Wasted Credits:","")))</f>
-        <v/>
+        <v>Mindestens fehlende Credits:                                          At least missing Credits:</v>
       </c>
       <c r="D308" s="54"/>
-      <c r="E308" s="33" t="str">
+      <c r="E308" s="33" t="e">
         <f>IF(C22="","",IF(E306&lt;C21,ROUNDUP((C21-E306),0),IF(E306&gt;C21*1.05,ROUNDUP((E306-C21),0),"")))</f>
-        <v/>
-      </c>
-      <c r="F308" s="33" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F308" s="33" t="e">
         <f>IF(C22="","",IF(OR(E306&lt;C21,E306&gt;C21*1.05),"=",""))</f>
-        <v/>
-      </c>
-      <c r="G308" s="33" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G308" s="33" t="e">
         <f>IF(C22="","",IF(E308="","",E308*C22))</f>
-        <v/>
-      </c>
-      <c r="H308" s="31" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H308" s="31" t="e">
         <f>IF(C22="","",IF(OR(E306&lt;C21,E306&gt;C21*1.05),"ECTS",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="1:8" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" s="8" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="29"/>
       <c r="B309" s="29"/>
       <c r="C309" s="29"/>
@@ -6889,50 +6320,50 @@
       <c r="G309" s="31"/>
       <c r="H309" s="31"/>
     </row>
-    <row r="310" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="115" t="s">
+    <row r="310" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B310" s="116"/>
-      <c r="C310" s="30" t="str">
+      <c r="B310" s="115"/>
+      <c r="C310" s="30">
         <f>IF(C22="","",SUMIF(F241:F305,"&lt;&gt;0",E241:E305))</f>
-        <v/>
-      </c>
-      <c r="D310" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="E310" s="116"/>
-      <c r="F310" s="118" t="str">
+      <c r="E310" s="115"/>
+      <c r="F310" s="117" t="str">
         <f>IF(OR(C22="",C310=0),"",IF(OR(D233="",D234=""),40+C311/C310*60,C311/C310))</f>
         <v/>
       </c>
-      <c r="G310" s="119"/>
+      <c r="G310" s="118"/>
       <c r="H310" s="22" t="str">
         <f>IF(OR(D233="",D234=""),"%","")</f>
         <v>%</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="115" t="s">
+    <row r="311" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="B311" s="117"/>
-      <c r="C311" s="30" t="str">
+      <c r="B311" s="116"/>
+      <c r="C311" s="30">
         <f>IF(C22="","",IF(AND(D233="",D234=""),G306,H306))</f>
-        <v/>
-      </c>
-      <c r="D311" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="E311" s="116"/>
-      <c r="F311" s="118" t="str">
+      <c r="E311" s="115"/>
+      <c r="F311" s="117" t="str">
         <f>IF(OR(C22="",F310=""),"",IF(OR(D233="",D234=""),TRUNC((1+3*(ABS(100-F310)/60)),1),TRUNC((1+3*(ABS(D233-F310)/ABS(D233-D234))),1)))</f>
         <v/>
       </c>
-      <c r="G311" s="119"/>
+      <c r="G311" s="118"/>
       <c r="H311" s="23"/>
     </row>
-    <row r="312" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="16"/>
       <c r="B312" s="17"/>
       <c r="C312" s="2"/>
@@ -6940,7 +6371,7 @@
       <c r="E312" s="17"/>
       <c r="F312" s="18"/>
     </row>
-    <row r="313" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="55" t="s">
         <v>31</v>
       </c>
@@ -6952,36 +6383,36 @@
       <c r="G313" s="55"/>
       <c r="H313" s="55"/>
     </row>
-    <row r="314" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="108" t="s">
+    <row r="314" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B314" s="108"/>
-      <c r="C314" s="108"/>
-      <c r="D314" s="83"/>
-      <c r="E314" s="83"/>
-      <c r="F314" s="83"/>
-      <c r="G314" s="83"/>
-      <c r="H314" s="83"/>
-    </row>
-    <row r="315" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B314" s="107"/>
+      <c r="C314" s="107"/>
+      <c r="D314" s="85"/>
+      <c r="E314" s="85"/>
+      <c r="F314" s="85"/>
+      <c r="G314" s="85"/>
+      <c r="H314" s="85"/>
+    </row>
+    <row r="315" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="11"/>
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
     </row>
-    <row r="316" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="105" t="s">
+    <row r="316" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B316" s="105"/>
-      <c r="C316" s="105"/>
-      <c r="D316" s="83"/>
-      <c r="E316" s="83"/>
-      <c r="F316" s="83"/>
-      <c r="G316" s="83"/>
-      <c r="H316" s="83"/>
-    </row>
-    <row r="317" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B316" s="104"/>
+      <c r="C316" s="104"/>
+      <c r="D316" s="85"/>
+      <c r="E316" s="85"/>
+      <c r="F316" s="85"/>
+      <c r="G316" s="85"/>
+      <c r="H316" s="85"/>
+    </row>
+    <row r="317" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="10"/>
       <c r="B317" s="10"/>
       <c r="C317" s="10"/>
@@ -6990,17 +6421,17 @@
       <c r="F317" s="10"/>
       <c r="G317" s="10"/>
     </row>
-    <row r="318" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="112"/>
-      <c r="B318" s="113"/>
-      <c r="C318" s="113"/>
-      <c r="D318" s="114"/>
-      <c r="E318" s="114"/>
-      <c r="F318" s="114"/>
-      <c r="G318" s="114"/>
-      <c r="H318" s="114"/>
-    </row>
-    <row r="319" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="111"/>
+      <c r="B318" s="112"/>
+      <c r="C318" s="112"/>
+      <c r="D318" s="113"/>
+      <c r="E318" s="113"/>
+      <c r="F318" s="113"/>
+      <c r="G318" s="113"/>
+      <c r="H318" s="113"/>
+    </row>
+    <row r="319" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="52"/>
       <c r="B319" s="52"/>
       <c r="C319" s="52"/>
@@ -7009,7 +6440,7 @@
       <c r="F319" s="52"/>
       <c r="G319" s="52"/>
     </row>
-    <row r="322" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="51" t="s">
         <v>69</v>
       </c>
@@ -7040,6 +6471,10 @@
     <mergeCell ref="B201:D201"/>
     <mergeCell ref="B181:D181"/>
     <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B176:D176"/>
     <mergeCell ref="A157:A166"/>
     <mergeCell ref="B189:D189"/>
     <mergeCell ref="B170:D170"/>
@@ -7064,10 +6499,15 @@
     <mergeCell ref="B163:D163"/>
     <mergeCell ref="B174:D174"/>
     <mergeCell ref="B175:D175"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="G132:G141"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B166:D166"/>
     <mergeCell ref="G157:G166"/>
     <mergeCell ref="B137:D137"/>
     <mergeCell ref="B138:D138"/>
@@ -7077,15 +6517,6 @@
     <mergeCell ref="B152:D152"/>
     <mergeCell ref="B150:D150"/>
     <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="G132:G141"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B166:D166"/>
     <mergeCell ref="A142:A151"/>
     <mergeCell ref="B142:D142"/>
     <mergeCell ref="G142:G151"/>
@@ -7260,13 +6691,6 @@
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
@@ -7293,6 +6717,13 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="C275:D275"/>
     <mergeCell ref="C270:D270"/>
     <mergeCell ref="C254:D254"/>
